--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H2">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3382609512675</v>
+        <v>13.466326</v>
       </c>
       <c r="N2">
-        <v>13.3382609512675</v>
+        <v>26.932652</v>
       </c>
       <c r="O2">
-        <v>0.1825604521720205</v>
+        <v>0.178436493443925</v>
       </c>
       <c r="P2">
-        <v>0.1825604521720205</v>
+        <v>0.1320271070991917</v>
       </c>
       <c r="Q2">
-        <v>25.51306686965223</v>
+        <v>0.3953803089106666</v>
       </c>
       <c r="R2">
-        <v>25.51306686965223</v>
+        <v>2.372281853464</v>
       </c>
       <c r="S2">
-        <v>0.1825604521720205</v>
+        <v>0.001281734772358985</v>
       </c>
       <c r="T2">
-        <v>0.1825604521720205</v>
+        <v>0.0009483695335908266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H3">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.447036312322</v>
+        <v>14.56078733333333</v>
       </c>
       <c r="N3">
-        <v>13.447036312322</v>
+        <v>43.682362</v>
       </c>
       <c r="O3">
-        <v>0.1840492578845371</v>
+        <v>0.1929387298022281</v>
       </c>
       <c r="P3">
-        <v>0.1840492578845371</v>
+        <v>0.2141362048609124</v>
       </c>
       <c r="Q3">
-        <v>25.72112945520918</v>
+        <v>0.4275144232982221</v>
       </c>
       <c r="R3">
-        <v>25.72112945520918</v>
+        <v>3.847629809683999</v>
       </c>
       <c r="S3">
-        <v>0.1840492578845371</v>
+        <v>0.001385906403725678</v>
       </c>
       <c r="T3">
-        <v>0.1840492578845371</v>
+        <v>0.00153817088922716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H4">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2568814308486</v>
+        <v>13.381108</v>
       </c>
       <c r="N4">
-        <v>13.2568814308486</v>
+        <v>40.143324</v>
       </c>
       <c r="O4">
-        <v>0.1814466126617952</v>
+        <v>0.1773073063814475</v>
       </c>
       <c r="P4">
-        <v>0.1814466126617952</v>
+        <v>0.1967874139191919</v>
       </c>
       <c r="Q4">
-        <v>25.35740631136406</v>
+        <v>0.3928782516186666</v>
       </c>
       <c r="R4">
-        <v>25.35740631136406</v>
+        <v>3.535904264568</v>
       </c>
       <c r="S4">
-        <v>0.1814466126617952</v>
+        <v>0.001273623660699362</v>
       </c>
       <c r="T4">
-        <v>0.1814466126617952</v>
+        <v>0.00141355205045034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H5">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5731722865333</v>
+        <v>15.58761566666667</v>
       </c>
       <c r="N5">
-        <v>15.5731722865333</v>
+        <v>46.762847</v>
       </c>
       <c r="O5">
-        <v>0.2131496290835523</v>
+        <v>0.2065447903690724</v>
       </c>
       <c r="P5">
-        <v>0.2131496290835523</v>
+        <v>0.2292371137135739</v>
       </c>
       <c r="Q5">
-        <v>29.7879451729562</v>
+        <v>0.4576627877171111</v>
       </c>
       <c r="R5">
-        <v>29.7879451729562</v>
+        <v>4.118965089454</v>
       </c>
       <c r="S5">
-        <v>0.2131496290835523</v>
+        <v>0.001483640676613231</v>
       </c>
       <c r="T5">
-        <v>0.2131496290835523</v>
+        <v>0.001646642870474441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H6">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.501602829455299</v>
+        <v>9.526935333333334</v>
       </c>
       <c r="N6">
-        <v>8.501602829455299</v>
+        <v>28.580806</v>
       </c>
       <c r="O6">
-        <v>0.1163612304784606</v>
+        <v>0.1262373222025838</v>
       </c>
       <c r="P6">
-        <v>0.1163612304784606</v>
+        <v>0.1401065567083116</v>
       </c>
       <c r="Q6">
-        <v>16.26163727637267</v>
+        <v>0.2797171726768889</v>
       </c>
       <c r="R6">
-        <v>16.26163727637267</v>
+        <v>2.517454554092</v>
       </c>
       <c r="S6">
-        <v>0.1163612304784606</v>
+        <v>0.0009067806832204101</v>
       </c>
       <c r="T6">
-        <v>0.1163612304784606</v>
+        <v>0.001006405372032056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,793 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H7">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.94520610742514</v>
+        <v>8.945679999999999</v>
       </c>
       <c r="N7">
-        <v>8.94520610742514</v>
+        <v>17.89136</v>
       </c>
       <c r="O7">
-        <v>0.1224328177196345</v>
+        <v>0.1185353578007432</v>
       </c>
       <c r="P7">
-        <v>0.1224328177196345</v>
+        <v>0.08770560369881859</v>
       </c>
       <c r="Q7">
-        <v>17.11014969757898</v>
+        <v>0.2626511285866666</v>
       </c>
       <c r="R7">
-        <v>17.11014969757898</v>
+        <v>1.57590677152</v>
       </c>
       <c r="S7">
-        <v>0.1224328177196345</v>
+        <v>0.0008514563748416847</v>
       </c>
       <c r="T7">
-        <v>0.1224328177196345</v>
+        <v>0.0006300018556845265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.927719</v>
+      </c>
+      <c r="H8">
+        <v>5.783157</v>
+      </c>
+      <c r="I8">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J8">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.466326</v>
+      </c>
+      <c r="N8">
+        <v>26.932652</v>
+      </c>
+      <c r="O8">
+        <v>0.178436493443925</v>
+      </c>
+      <c r="P8">
+        <v>0.1320271070991917</v>
+      </c>
+      <c r="Q8">
+        <v>25.959292490394</v>
+      </c>
+      <c r="R8">
+        <v>155.755754942364</v>
+      </c>
+      <c r="S8">
+        <v>0.08415423606311472</v>
+      </c>
+      <c r="T8">
+        <v>0.0622666368471711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.927719</v>
+      </c>
+      <c r="H9">
+        <v>5.783157</v>
+      </c>
+      <c r="I9">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J9">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N9">
+        <v>43.682362</v>
+      </c>
+      <c r="O9">
+        <v>0.1929387298022281</v>
+      </c>
+      <c r="P9">
+        <v>0.2141362048609124</v>
+      </c>
+      <c r="Q9">
+        <v>28.069106397426</v>
+      </c>
+      <c r="R9">
+        <v>252.621957576834</v>
+      </c>
+      <c r="S9">
+        <v>0.0909937821581138</v>
+      </c>
+      <c r="T9">
+        <v>0.1009909373677968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.927719</v>
+      </c>
+      <c r="H10">
+        <v>5.783157</v>
+      </c>
+      <c r="I10">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J10">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.381108</v>
+      </c>
+      <c r="N10">
+        <v>40.143324</v>
+      </c>
+      <c r="O10">
+        <v>0.1773073063814475</v>
+      </c>
+      <c r="P10">
+        <v>0.1967874139191919</v>
+      </c>
+      <c r="Q10">
+        <v>25.795016132652</v>
+      </c>
+      <c r="R10">
+        <v>232.155145193868</v>
+      </c>
+      <c r="S10">
+        <v>0.08362168875297041</v>
+      </c>
+      <c r="T10">
+        <v>0.09280889892856924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.927719</v>
+      </c>
+      <c r="H11">
+        <v>5.783157</v>
+      </c>
+      <c r="I11">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J11">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.58761566666667</v>
+      </c>
+      <c r="N11">
+        <v>46.762847</v>
+      </c>
+      <c r="O11">
+        <v>0.2065447903690724</v>
+      </c>
+      <c r="P11">
+        <v>0.2292371137135739</v>
+      </c>
+      <c r="Q11">
+        <v>30.048542885331</v>
+      </c>
+      <c r="R11">
+        <v>270.436885967979</v>
+      </c>
+      <c r="S11">
+        <v>0.0974106737408386</v>
+      </c>
+      <c r="T11">
+        <v>0.1081128294417061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.927719</v>
+      </c>
+      <c r="H12">
+        <v>5.783157</v>
+      </c>
+      <c r="I12">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J12">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.526935333333334</v>
+      </c>
+      <c r="N12">
+        <v>28.580806</v>
+      </c>
+      <c r="O12">
+        <v>0.1262373222025838</v>
+      </c>
+      <c r="P12">
+        <v>0.1401065567083116</v>
+      </c>
+      <c r="Q12">
+        <v>18.365254253838</v>
+      </c>
+      <c r="R12">
+        <v>165.287288284542</v>
+      </c>
+      <c r="S12">
+        <v>0.05953605794181441</v>
+      </c>
+      <c r="T12">
+        <v>0.06607706764270557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.927719</v>
+      </c>
+      <c r="H13">
+        <v>5.783157</v>
+      </c>
+      <c r="I13">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J13">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.945679999999999</v>
+      </c>
+      <c r="N13">
+        <v>17.89136</v>
+      </c>
+      <c r="O13">
+        <v>0.1185353578007432</v>
+      </c>
+      <c r="P13">
+        <v>0.08770560369881859</v>
+      </c>
+      <c r="Q13">
+        <v>17.24475730392</v>
+      </c>
+      <c r="R13">
+        <v>103.46854382352</v>
+      </c>
+      <c r="S13">
+        <v>0.05590365675575388</v>
+      </c>
+      <c r="T13">
+        <v>0.04136372518465702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J14">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.466326</v>
+      </c>
+      <c r="N14">
+        <v>26.932652</v>
+      </c>
+      <c r="O14">
+        <v>0.178436493443925</v>
+      </c>
+      <c r="P14">
+        <v>0.1320271070991917</v>
+      </c>
+      <c r="Q14">
+        <v>28.68813123491067</v>
+      </c>
+      <c r="R14">
+        <v>172.128787409464</v>
+      </c>
+      <c r="S14">
+        <v>0.09300052260845129</v>
+      </c>
+      <c r="T14">
+        <v>0.06881210071842975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J15">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N15">
+        <v>43.682362</v>
+      </c>
+      <c r="O15">
+        <v>0.1929387298022281</v>
+      </c>
+      <c r="P15">
+        <v>0.2141362048609124</v>
+      </c>
+      <c r="Q15">
+        <v>31.01972861063155</v>
+      </c>
+      <c r="R15">
+        <v>279.177557495684</v>
+      </c>
+      <c r="S15">
+        <v>0.1005590412403887</v>
+      </c>
+      <c r="T15">
+        <v>0.1116070966038884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J16">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.381108</v>
+      </c>
+      <c r="N16">
+        <v>40.143324</v>
+      </c>
+      <c r="O16">
+        <v>0.1773073063814475</v>
+      </c>
+      <c r="P16">
+        <v>0.1967874139191919</v>
+      </c>
+      <c r="Q16">
+        <v>28.50658615961867</v>
+      </c>
+      <c r="R16">
+        <v>256.559275436568</v>
+      </c>
+      <c r="S16">
+        <v>0.09241199396777776</v>
+      </c>
+      <c r="T16">
+        <v>0.1025649629401723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J17">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.58761566666667</v>
+      </c>
+      <c r="N17">
+        <v>46.762847</v>
+      </c>
+      <c r="O17">
+        <v>0.2065447903690724</v>
+      </c>
+      <c r="P17">
+        <v>0.2292371137135739</v>
+      </c>
+      <c r="Q17">
+        <v>33.20724330338378</v>
+      </c>
+      <c r="R17">
+        <v>298.8651897304541</v>
+      </c>
+      <c r="S17">
+        <v>0.1076504759516206</v>
+      </c>
+      <c r="T17">
+        <v>0.1194776414013934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J18">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.526935333333334</v>
+      </c>
+      <c r="N18">
+        <v>28.580806</v>
+      </c>
+      <c r="O18">
+        <v>0.1262373222025838</v>
+      </c>
+      <c r="P18">
+        <v>0.1401065567083116</v>
+      </c>
+      <c r="Q18">
+        <v>20.29580830801023</v>
+      </c>
+      <c r="R18">
+        <v>182.662274772092</v>
+      </c>
+      <c r="S18">
+        <v>0.06579448357754895</v>
+      </c>
+      <c r="T18">
+        <v>0.07302308369357395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J19">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.945679999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.89136</v>
+      </c>
+      <c r="O19">
+        <v>0.1185353578007432</v>
+      </c>
+      <c r="P19">
+        <v>0.08770560369881859</v>
+      </c>
+      <c r="Q19">
+        <v>19.05752480858667</v>
+      </c>
+      <c r="R19">
+        <v>114.34514885152</v>
+      </c>
+      <c r="S19">
+        <v>0.06178024467014764</v>
+      </c>
+      <c r="T19">
+        <v>0.04571187665847706</v>
       </c>
     </row>
   </sheetData>
